--- a/medicine/Enfance/Jane_Yolen/Jane_Yolen.xlsx
+++ b/medicine/Enfance/Jane_Yolen/Jane_Yolen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jane Yolen, née le 11 février 1939 à Manhattan aux États-Unis, est une éditrice et écrivain américaine de fantasy, de science-fiction et de livres pour enfants.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jane Hyatt Yolen est née et a grandi à New York. Ses parents sont tous deux dans le métier, sa mère écrivant des histoires courtes pour enfants et son père comme journaliste.
 Peu de temps après sa naissance, ses parents déménagent en Californie pour quelques années, puis retournent à New York en 1943.
@@ -521,7 +535,7 @@
 De 1986 à 1988, elle est présidente de la Science Fiction and Fantasy Writers of America. Elle a également fait partie du comité de direction de la Society of Children's Book Writers and Illustrators depuis sa création. Elle est connue dans le milieu pour ses conseils et sa générosité envers les néophytes.
 Parmi de nombreux prix, elle a remporté deux prix Nebula de la meilleure nouvelle longue, un prix Nebula de la meilleure nouvelle courte ainsi que le prix Locus du meilleur roman pour jeunes adultes pour Pay the Piper qu'elle a coécrit avec son fils Adam Stemple (en). Elle a publié plus de 200 romans dont malheureusement seuls un petit nombre sont traduits en français (particulièrement des histoires pour enfants).
 Outre son travail de rédactrice en chef dans une maison d'édition, elle voyage beaucoup, principalement pour rencontrer des fans ou faire des lectures publiques de ses textes dans les écoles. Aux États-Unis, elle est surnommée Andersen des États-Unis pour ses contes et histoires pour enfants.
-En 2021, elle est sélectionnée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[1].
+En 2021, elle est sélectionnée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -550,27 +564,200 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(liste non exhaustive)
-Série Great Alta
-Sister Light, Sister Dark (1988)
-White Jenna (1989)
-Série Pit Dragon
-Dragon's Blood (1982)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(liste non exhaustive)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jane_Yolen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jane_Yolen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Great Alta</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sister Light, Sister Dark (1988)
+White Jenna (1989)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jane_Yolen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jane_Yolen</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Pit Dragon</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dragon's Blood (1982)
 Heart's Blood (1984)
-A Sending of Dragons (1987)
-Série Rock 'n' Roll Fairy Tales
-(en) TPay the Piper, 2005Coécrit avec Adam Stemple (en).
+A Sending of Dragons (1987)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jane_Yolen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jane_Yolen</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Rock 'n' Roll Fairy Tales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) TPay the Piper, 2005Coécrit avec Adam Stemple (en).
 (en) TTroll Bridge, 2006Coécrit avec Adam Stemple (en).
-(en) TBoots and the Seven Leaguers, 2000
-Série Xanadu
-Cette série est coécrite avec Martin H. Greenberg.
+(en) TBoots and the Seven Leaguers, 2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jane_Yolen</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jane_Yolen</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Xanadu</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cette série est coécrite avec Martin H. Greenberg.
 Xanadu 1 (1993)
 Xanadu 2 (1994)
-Xanadu 3 (1995)
-Romans indépendants
-The Magic Three of Solatia (1974)
+Xanadu 3 (1995)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jane_Yolen</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jane_Yolen</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>The Magic Three of Solatia (1974)
 The Rainbow Rider (1974) avec Michael Foreman
 Cards of Grief (1984)
 The Stone Silenus (1984)
@@ -607,9 +794,43 @@
 Magic Three Of Solatia (2004)
 The Wizard of Washington Square (2005)
 (en) The Omega Egg, 2007Coécrit avec Tobias S. Buckell, Michael A. Burstein (en), Pat Cadigan, Bill Fawcett (en), David Gerrold, Brian Herbert, James Patrick Kelly, Kay Kenyon, Nancy Kress, Stephen Leigh, Jody Lynn Nye (en), Laura Resnick, Mike Resnick, Kristine Kathryn Rusch, Robert Sheckley et Dean Wesley Smith (en).
-(en) Except the Queen, Roc / New American Library, 2010Coécrit avec Midori Snyder.
-Recueils de nouvelles
-(en) The Girl Who Cried Flowers and Other Tales, 1974
+(en) Except the Queen, Roc / New American Library, 2010Coécrit avec Midori Snyder.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jane_Yolen</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jane_Yolen</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(en) The Girl Who Cried Flowers and Other Tales, 1974
 (en) The Hundredth Dove and Other Tales, 1977
 (en) Dream Weaver, 1979
 (en) Neptune Rising: Songs and Tales of the Undersea People, 1982
@@ -628,9 +849,43 @@
 (en) The Emerald Circus, 2017
 (en) How to Fracture a Fairy Tale, 2018
 (en) The Midnight Circus, 2020
-(en) The Scarlet Circus, 2023
-Anthologies
-Zoo 2000 (1973)
+(en) The Scarlet Circus, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jane_Yolen</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jane_Yolen</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Anthologies</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Zoo 2000 (1973)
 Shape Shifters (1978)
 Dragons and Dreams (1986) avec Charles G. Waugh et Martin H. Greenberg
 Favorite Folktales from Around the World (1986)
@@ -645,31 +900,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jane_Yolen</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jane_Yolen</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jane_Yolen</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jane_Yolen</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Prix Mythopoeic 1985 pour Cards of Grief
 Finaliste Prix Nebula du meilleur roman 1989 pour Sister Light, Sister Dark
@@ -686,7 +943,7 @@
 Grand Maître Prix Nebula 2016
 Prix Damon-Knight Memorial Grand Master 2016
 Prix World Fantasy 2018 , catégorie Recueil, pour The Emerald Circus
- Sélection pour le Prix commémoratif Astrid-Lindgren 2021[1]</t>
+ Sélection pour le Prix commémoratif Astrid-Lindgren 2021</t>
         </is>
       </c>
     </row>
